--- a/recycle/WriteOut/結果.xlsx
+++ b/recycle/WriteOut/結果.xlsx
@@ -16,31 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
-  <si>
-    <t>総取引における距離の平均</t>
-  </si>
-  <si>
-    <t>合算地</t>
-  </si>
-  <si>
-    <t>何番目に好きな人に売れたの平均</t>
-  </si>
-  <si>
-    <t>何番目に好きな人から買えたの平均</t>
-  </si>
-  <si>
-    <t>ari</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nasi</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>平均</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25単位時間分の売却先順位の平均</t>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バイキャク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25単位時間分の購入先順位の平均</t>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25単位時間分の１取引当たりの移動距離の平均</t>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジカンブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,9 +198,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -99,6 +212,218 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>単位時間分の取引において</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>１取引当たりの移動距離の平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25単位時間分の１取引当たりの移動距離の平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1回目</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2回目</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3回目</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4回目</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5回目</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6回目</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7回目</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8回目</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9回目</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10回目</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="65116416"/>
+        <c:axId val="65118208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65116416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65118208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65118208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65116416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,316 +711,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="C8:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="8" spans="3:6" ht="27">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2071</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2642</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2583</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2100</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2357</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2062</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1812</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2062</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1250</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>1750</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2071</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>14500</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>2375</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>19000</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2642</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2625</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>10500</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2583</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>15500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>3083</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>18500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10500</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>19000</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2357</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>16500</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>2000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>18000</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(B1:B5)</f>
-        <v>2350.6</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="C6:Q6" si="0">AVERAGE(D1:D5)</f>
-        <v>15100</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f>AVERAGE(D9:D18)</f>
+        <v>2068.9</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E9:E18)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(F9:F18)</f>
         <v>2.6</v>
-      </c>
-      <c r="I6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>2438.8000000000002</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
